--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,15 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
   </si>
   <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>Rhbdl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -531,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -540,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06315533333333333</v>
+        <v>0.2163973333333333</v>
       </c>
       <c r="H2">
-        <v>0.189466</v>
+        <v>0.649192</v>
       </c>
       <c r="I2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="J2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N2">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06452016219022223</v>
+        <v>0.6558516279333334</v>
       </c>
       <c r="R2">
-        <v>0.580681459712</v>
+        <v>5.9026646514</v>
       </c>
       <c r="S2">
-        <v>0.08692959137136652</v>
+        <v>0.2690509661419307</v>
       </c>
       <c r="T2">
-        <v>0.08692959137136655</v>
+        <v>0.2690509661419307</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,25 +590,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5618379999999999</v>
+        <v>0.06315533333333333</v>
       </c>
       <c r="H3">
-        <v>1.685514</v>
+        <v>0.189466</v>
       </c>
       <c r="I3">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="J3">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,10 +617,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N3">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.5739796937386668</v>
+        <v>0.1914096053833333</v>
       </c>
       <c r="R3">
-        <v>5.165817243648001</v>
+        <v>1.72268644845</v>
       </c>
       <c r="S3">
-        <v>0.7733368692573732</v>
+        <v>0.07852224049441002</v>
       </c>
       <c r="T3">
-        <v>0.7733368692573734</v>
+        <v>0.07852224049441003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,25 +652,25 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.073382</v>
+        <v>0.4426526666666666</v>
       </c>
       <c r="H4">
-        <v>0.220146</v>
+        <v>1.327958</v>
       </c>
       <c r="I4">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="J4">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N4">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.07496783394133336</v>
+        <v>1.341580635816667</v>
       </c>
       <c r="R4">
-        <v>0.6747105054720002</v>
+        <v>12.07422572235</v>
       </c>
       <c r="S4">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663155</v>
       </c>
       <c r="T4">
-        <v>0.1010059948594516</v>
+        <v>0.5503585732663157</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.028136</v>
+        <v>0.08209333333333334</v>
       </c>
       <c r="H5">
-        <v>0.08440800000000001</v>
+        <v>0.24628</v>
       </c>
       <c r="I5">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="J5">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,10 +741,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.021610666666667</v>
+        <v>3.030775</v>
       </c>
       <c r="N5">
-        <v>3.064832</v>
+        <v>9.092325000000001</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.02874403771733335</v>
+        <v>0.2488064223333334</v>
       </c>
       <c r="R5">
-        <v>0.2586963394560001</v>
+        <v>2.239257801</v>
       </c>
       <c r="S5">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
       <c r="T5">
-        <v>0.03872754451180849</v>
+        <v>0.1020682200973436</v>
       </c>
     </row>
   </sheetData>
